--- a/wrong/计算机组成错题集.xlsx
+++ b/wrong/计算机组成错题集.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/why-so-serious/wrong/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ED849F-7139-D74B-A650-F8FB73E0AE83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5594A8-F3CD-F947-8602-AB454A278CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="960" windowWidth="24540" windowHeight="13980" activeTab="1" xr2:uid="{44F44528-6A80-4C4A-89F8-F212D8EF7705}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -59,6 +59,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -87,8 +95,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -433,41 +444,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBDA210E-A48D-614D-9BE5-7283FFA280CC}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="47.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="23">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="23">
+      <c r="A2" s="1">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="23">
+      <c r="A3" s="1">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="23">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="23">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="23">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="23">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
